--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1982277.750472442</v>
+        <v>-1983982.102609154</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>208.0250417001232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>220.6450016938488</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>120.8656688582284</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>106.6406190175603</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.987681053581084</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>200.160833108852</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>236.5582968543978</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>186.8615014947453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>11.62493210760333</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141.8396887139873</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>40.67087089223143</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>334.2632661944081</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>361.5105946459869</v>
       </c>
       <c r="F11" t="n">
         <v>386.4562703154365</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5197736437242</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8530230257433</v>
+        <v>132.3185445057015</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302581</v>
+        <v>98.94929161302585</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>134.7491374664341</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>230.7368224059508</v>
       </c>
       <c r="V11" t="n">
         <v>307.33248304386</v>
@@ -1436,7 +1436,7 @@
         <v>349.3113252521941</v>
       </c>
       <c r="Y11" t="n">
-        <v>229.5243816074454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I12" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S12" t="n">
         <v>148.1971745240615</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.827045672353</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.0012725966564</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H13" t="n">
-        <v>99.53702736804725</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S13" t="n">
         <v>185.1231296267668</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021384</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
-        <v>231.7178678975531</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2898799627623</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258199</v>
+        <v>41.16287874089922</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>362.3140662372057</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>344.8531163447327</v>
       </c>
       <c r="D14" t="n">
         <v>334.2632661944081</v>
@@ -1616,16 +1616,16 @@
         <v>361.5105946459869</v>
       </c>
       <c r="F14" t="n">
-        <v>386.4562703154365</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>123.8329576387731</v>
+        <v>50.43484528488855</v>
       </c>
       <c r="H14" t="n">
         <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302581</v>
+        <v>98.94929161302585</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>134.7491374664341</v>
       </c>
       <c r="T14" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>230.7368224059507</v>
+        <v>230.7368224059508</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W14" t="n">
         <v>328.8211932911381</v>
@@ -1704,7 +1704,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I15" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S15" t="n">
         <v>148.1971745240615</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.1956975919375</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>126.0141872202943</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.3826335244177</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.2101389041963</v>
       </c>
       <c r="S16" t="n">
-        <v>89.85130916776116</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>266.1032229103161</v>
       </c>
       <c r="X16" t="n">
-        <v>205.2898799627623</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.1648779258199</v>
+        <v>183.1957674168372</v>
       </c>
     </row>
     <row r="17">
@@ -1844,16 +1844,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C17" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D17" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E17" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F17" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G17" t="n">
         <v>331.1282792841545</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686443</v>
+        <v>73.35764310686442</v>
       </c>
       <c r="T17" t="n">
         <v>130.939722359704</v>
@@ -1904,10 +1904,10 @@
         <v>245.9409886842903</v>
       </c>
       <c r="W17" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X17" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y17" t="n">
         <v>304.426668870209</v>
@@ -1941,7 +1941,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I18" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.65304841868479</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S18" t="n">
         <v>148.1971745240615</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.02071039609272</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278326</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236778</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E19" t="n">
-        <v>64.6226928607246</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F19" t="n">
-        <v>63.60977823708667</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179396</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638378</v>
+        <v>41.76076153638377</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.81864454462662</v>
       </c>
       <c r="S19" t="n">
         <v>123.7316352671971</v>
@@ -2056,16 +2056,16 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U19" t="n">
-        <v>204.4499389353289</v>
+        <v>58.95805371295609</v>
       </c>
       <c r="V19" t="n">
         <v>170.3263735379834</v>
       </c>
       <c r="W19" t="n">
-        <v>178.0296270378475</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X19" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y19" t="n">
         <v>136.7733835662502</v>
@@ -2081,16 +2081,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C20" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D20" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E20" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G20" t="n">
         <v>331.1282792841545</v>
@@ -2099,7 +2099,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.55779725345661</v>
+        <v>37.5577972534561</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686446</v>
+        <v>73.3576431068644</v>
       </c>
       <c r="T20" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U20" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V20" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W20" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X20" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y20" t="n">
         <v>304.426668870209</v>
@@ -2178,7 +2178,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I21" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S21" t="n">
         <v>148.1971745240615</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.28072587495062</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278329</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D22" t="n">
-        <v>66.80420323236781</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F22" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179401</v>
+        <v>29.20718545043106</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.99113916484791</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462665</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>123.7316352671971</v>
@@ -2293,7 +2293,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U22" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V22" t="n">
         <v>170.3263735379834</v>
@@ -2302,7 +2302,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X22" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y22" t="n">
         <v>136.7733835662502</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.9225718776361</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C23" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D23" t="n">
-        <v>272.8717718348385</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E23" t="n">
-        <v>300.1191002864173</v>
+        <v>300.1191002864172</v>
       </c>
       <c r="F23" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G23" t="n">
-        <v>331.1282792841546</v>
+        <v>331.1282792841545</v>
       </c>
       <c r="H23" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I23" t="n">
-        <v>37.55779725345623</v>
+        <v>37.5577972534561</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.3576431068645</v>
+        <v>73.3576431068644</v>
       </c>
       <c r="T23" t="n">
-        <v>130.9397223597041</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U23" t="n">
-        <v>169.3453280463812</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V23" t="n">
-        <v>245.9409886842904</v>
+        <v>245.9409886842903</v>
       </c>
       <c r="W23" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X23" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4266688702091</v>
+        <v>304.426668870209</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609281</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278335</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236787</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072468</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F25" t="n">
-        <v>63.60977823708676</v>
+        <v>3.55344432749645</v>
       </c>
       <c r="G25" t="n">
-        <v>52.3796800706499</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.76076153638377</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462671</v>
+        <v>47.81864454462659</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7316352671972</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T25" t="n">
-        <v>141.6050365425688</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U25" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V25" t="n">
-        <v>170.3263735379835</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W25" t="n">
-        <v>204.7117285507465</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X25" t="n">
-        <v>143.8983856031927</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.7733835662503</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686444</v>
+        <v>73.35764310686446</v>
       </c>
       <c r="T26" t="n">
         <v>130.939722359704</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609274</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278328</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D28" t="n">
-        <v>66.8042032323678</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072461</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708669</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>85.11966459179398</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484797</v>
+        <v>30.86979371594397</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S28" t="n">
         <v>123.7316352671971</v>
       </c>
       <c r="T28" t="n">
-        <v>85.69255740120515</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U28" t="n">
         <v>204.4499389353289</v>
@@ -2810,7 +2810,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.35764310686443</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T29" t="n">
         <v>130.939722359704</v>
       </c>
       <c r="U29" t="n">
-        <v>169.345328046381</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V29" t="n">
         <v>245.9409886842903</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.02071039609272</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278326</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D31" t="n">
-        <v>66.80420323236778</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E31" t="n">
-        <v>64.6226928607246</v>
+        <v>30.55923042006346</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708667</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179396</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484795</v>
+        <v>70.99113916484798</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462664</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>20.00051158120813</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T31" t="n">
         <v>141.6050365425687</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.422481774376166</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>67.25500035903831</v>
@@ -3083,16 +3083,16 @@
         <v>124.8370796118779</v>
       </c>
       <c r="U32" t="n">
-        <v>163.2426852985549</v>
+        <v>251.1565978322256</v>
       </c>
       <c r="V32" t="n">
-        <v>239.8383459364642</v>
+        <v>243.4640746201857</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>261.3270561837423</v>
       </c>
       <c r="X32" t="n">
-        <v>284.0204350541435</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y32" t="n">
         <v>298.3240261223829</v>
@@ -3266,7 +3266,7 @@
         <v>294.8199291298099</v>
       </c>
       <c r="C35" t="n">
-        <v>277.3589792373368</v>
+        <v>277.3589792373369</v>
       </c>
       <c r="D35" t="n">
         <v>266.7691290870123</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T35" t="n">
         <v>124.8370796118779</v>
       </c>
       <c r="U35" t="n">
-        <v>163.2426852985549</v>
+        <v>163.242685298555</v>
       </c>
       <c r="V35" t="n">
         <v>239.8383459364642</v>
@@ -3329,7 +3329,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X35" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447981</v>
       </c>
       <c r="Y35" t="n">
         <v>298.3240261223829</v>
@@ -3363,7 +3363,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I36" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S36" t="n">
         <v>148.1971745240615</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826661</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495715</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454167</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289849</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926056</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396787</v>
       </c>
       <c r="H37" t="n">
         <v>64.88849641702183</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680052</v>
       </c>
       <c r="S37" t="n">
         <v>117.628992519371</v>
@@ -3478,7 +3478,7 @@
         <v>135.5023937947426</v>
       </c>
       <c r="U37" t="n">
-        <v>198.3472961875027</v>
+        <v>198.3472961875028</v>
       </c>
       <c r="V37" t="n">
         <v>164.2237307901573</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>294.8199291298105</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C38" t="n">
-        <v>277.3589792373368</v>
+        <v>277.3589792373369</v>
       </c>
       <c r="D38" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E38" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F38" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G38" t="n">
         <v>325.0256365363284</v>
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450563001</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T38" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U38" t="n">
-        <v>163.2426852985549</v>
+        <v>163.242685298555</v>
       </c>
       <c r="V38" t="n">
         <v>239.8383459364642</v>
@@ -3566,7 +3566,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X38" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y38" t="n">
         <v>298.3240261223829</v>
@@ -3600,7 +3600,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I39" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S39" t="n">
         <v>148.1971745240615</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826661</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495715</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454164</v>
+        <v>60.70156048454167</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289849</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926056</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396787</v>
       </c>
       <c r="H40" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702184</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855766</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680048</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T40" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U40" t="n">
-        <v>198.3472961875027</v>
+        <v>198.3472961875028</v>
       </c>
       <c r="V40" t="n">
         <v>164.2237307901573</v>
@@ -3724,7 +3724,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X40" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y40" t="n">
         <v>130.6707408184241</v>
@@ -3740,13 +3740,13 @@
         <v>294.8199291298099</v>
       </c>
       <c r="C41" t="n">
-        <v>277.3589792373368</v>
+        <v>277.3589792373369</v>
       </c>
       <c r="D41" t="n">
         <v>266.7691290870123</v>
       </c>
       <c r="E41" t="n">
-        <v>294.0164575385907</v>
+        <v>294.0164575385911</v>
       </c>
       <c r="F41" t="n">
         <v>318.9621332080408</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T41" t="n">
         <v>124.8370796118779</v>
       </c>
       <c r="U41" t="n">
-        <v>163.2426852985549</v>
+        <v>163.242685298555</v>
       </c>
       <c r="V41" t="n">
         <v>239.8383459364642</v>
@@ -3837,7 +3837,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I42" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S42" t="n">
         <v>148.1971745240615</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826661</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495715</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454167</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289849</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926056</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396787</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702184</v>
       </c>
       <c r="I43" t="n">
         <v>35.65811878855767</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.7160017968005</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
@@ -3952,7 +3952,7 @@
         <v>135.5023937947426</v>
       </c>
       <c r="U43" t="n">
-        <v>198.3472961875027</v>
+        <v>198.3472961875028</v>
       </c>
       <c r="V43" t="n">
         <v>164.2237307901573</v>
@@ -3995,7 +3995,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450563001</v>
+        <v>31.45515450562999</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I45" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S45" t="n">
         <v>148.1971745240615</v>
@@ -4153,7 +4153,7 @@
         <v>64.88849641702181</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855766</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.259035872464</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="C2" t="n">
-        <v>495.259035872464</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D2" t="n">
-        <v>495.259035872464</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E2" t="n">
-        <v>251.810259228364</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F2" t="n">
-        <v>244.8647584791605</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G2" t="n">
-        <v>229.407447857812</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>229.407447857812</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>738.7078125165641</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="X2" t="n">
-        <v>738.7078125165641</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="Y2" t="n">
-        <v>495.259035872464</v>
+        <v>497.7346397818405</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.9463781888485</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="C3" t="n">
-        <v>306.9463781888485</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0119685275972</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E3" t="n">
-        <v>158.0119685275972</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4419,13 +4419,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>466.3666821198403</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>466.3666821198403</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>466.3666821198403</v>
       </c>
       <c r="X3" t="n">
-        <v>682.9220139738704</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.1617152089165</v>
+        <v>258.5151819143075</v>
       </c>
     </row>
     <row r="4">
@@ -4510,10 +4510,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4550,16 +4550,16 @@
         <v>499.3853800778592</v>
       </c>
       <c r="E5" t="n">
-        <v>494.3473184075753</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>492.4398793286558</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>476.9825687073072</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>233.5337920632072</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4607,10 +4607,10 @@
         <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>742.8341567219593</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y5" t="n">
-        <v>742.8341567219593</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8157010833278</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8157010833278</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8157010833278</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4650,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>562.4161926976942</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>562.4161926976942</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="X6" t="n">
-        <v>354.5646924921614</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.8157010833278</v>
+        <v>489.9572726784918</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.0282188019862</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>266.0282188019862</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2858631377404</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2858631377404</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>247.340362388537</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>509.4769954460863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>509.4769954460863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>266.0282188019862</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>266.0282188019862</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.0282188019862</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>369.484465818592</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C9" t="n">
-        <v>369.484465818592</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D9" t="n">
-        <v>369.484465818592</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E9" t="n">
-        <v>369.484465818592</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4887,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4920,13 +4920,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>512.7568786610034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>512.7568786610034</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1944.069050582391</v>
+        <v>1748.570406625038</v>
       </c>
       <c r="C11" t="n">
-        <v>1595.732569426096</v>
+        <v>1400.233925468743</v>
       </c>
       <c r="D11" t="n">
-        <v>1258.092906603461</v>
+        <v>1062.594262646108</v>
       </c>
       <c r="E11" t="n">
-        <v>1258.092906603461</v>
+        <v>697.4320458319798</v>
       </c>
       <c r="F11" t="n">
-        <v>867.7330375979698</v>
+        <v>307.0721768264891</v>
       </c>
       <c r="G11" t="n">
-        <v>471.2484177558242</v>
+        <v>307.0721768264891</v>
       </c>
       <c r="H11" t="n">
-        <v>173.4170813661845</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="I11" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J11" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8208179075381</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L11" t="n">
         <v>1210.096241442436</v>
@@ -5051,40 +5051,40 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N11" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O11" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P11" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q11" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R11" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
-        <v>3537.304858089304</v>
+        <v>3537.304858089303</v>
       </c>
       <c r="T11" t="n">
-        <v>3537.304858089304</v>
+        <v>3343.030901807208</v>
       </c>
       <c r="U11" t="n">
-        <v>3537.304858089304</v>
+        <v>3109.963404427461</v>
       </c>
       <c r="V11" t="n">
-        <v>3226.868006529849</v>
+        <v>2799.526552868006</v>
       </c>
       <c r="W11" t="n">
-        <v>2894.725387043851</v>
+        <v>2467.383933382008</v>
       </c>
       <c r="X11" t="n">
-        <v>2541.885664566887</v>
+        <v>2114.544210905044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2310.042854862397</v>
+        <v>2114.544210905044</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I12" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J12" t="n">
-        <v>151.3002174994205</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K12" t="n">
-        <v>478.7916846922869</v>
+        <v>333.1371951879713</v>
       </c>
       <c r="L12" t="n">
-        <v>613.4168317267423</v>
+        <v>834.8942840728512</v>
       </c>
       <c r="M12" t="n">
-        <v>789.8748966302584</v>
+        <v>1472.400362088867</v>
       </c>
       <c r="N12" t="n">
-        <v>1459.960876960276</v>
+        <v>1667.937391818767</v>
       </c>
       <c r="O12" t="n">
-        <v>2006.542958788865</v>
+        <v>2214.519473647356</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.402498082636</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>174.0107538460041</v>
+        <v>600.2276283392156</v>
       </c>
       <c r="C13" t="n">
-        <v>174.0107538460041</v>
+        <v>451.9174811954247</v>
       </c>
       <c r="D13" t="n">
-        <v>174.0107538460041</v>
+        <v>451.9174811954247</v>
       </c>
       <c r="E13" t="n">
-        <v>174.0107538460041</v>
+        <v>451.9174811954247</v>
       </c>
       <c r="F13" t="n">
-        <v>174.0107538460041</v>
+        <v>325.6535694816304</v>
       </c>
       <c r="G13" t="n">
-        <v>174.0107538460041</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="H13" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="I13" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814347</v>
+        <v>75.45401965814355</v>
       </c>
       <c r="K13" t="n">
         <v>195.5491741164734</v>
@@ -5206,43 +5206,43 @@
         <v>399.1026573432035</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459855</v>
+        <v>623.0114736459853</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327551</v>
+        <v>847.5115364327548</v>
       </c>
       <c r="O13" t="n">
         <v>1040.400604995802</v>
       </c>
       <c r="P13" t="n">
-        <v>1184.847502163549</v>
+        <v>1184.847502163548</v>
       </c>
       <c r="Q13" t="n">
-        <v>1207.639325881399</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="R13" t="n">
-        <v>1207.639325881399</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="S13" t="n">
-        <v>1020.646265652342</v>
+        <v>910.3329940319406</v>
       </c>
       <c r="T13" t="n">
-        <v>815.5992647410903</v>
+        <v>910.3329940319406</v>
       </c>
       <c r="U13" t="n">
-        <v>815.5992647410903</v>
+        <v>641.8062937340633</v>
       </c>
       <c r="V13" t="n">
-        <v>581.5408123193195</v>
+        <v>641.8062937340633</v>
       </c>
       <c r="W13" t="n">
-        <v>581.5408123193195</v>
+        <v>641.8062937340633</v>
       </c>
       <c r="X13" t="n">
-        <v>374.1772972054182</v>
+        <v>641.8062937340633</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.0107538460041</v>
+        <v>600.2276283392156</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1689.493961992799</v>
+        <v>1573.331066715437</v>
       </c>
       <c r="C14" t="n">
-        <v>1689.493961992799</v>
+        <v>1224.994585559141</v>
       </c>
       <c r="D14" t="n">
-        <v>1351.854299170164</v>
+        <v>887.354922736507</v>
       </c>
       <c r="E14" t="n">
-        <v>986.6920823560361</v>
+        <v>522.1927059223788</v>
       </c>
       <c r="F14" t="n">
-        <v>596.3322133505445</v>
+        <v>522.1927059223788</v>
       </c>
       <c r="G14" t="n">
-        <v>471.2484177558243</v>
+        <v>471.2484177558247</v>
       </c>
       <c r="H14" t="n">
         <v>173.4170813661846</v>
       </c>
       <c r="I14" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J14" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K14" t="n">
-        <v>660.8208179075381</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L14" t="n">
         <v>1210.096241442436</v>
@@ -5288,7 +5288,7 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O14" t="n">
         <v>3004.568888469954</v>
@@ -5297,31 +5297,31 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q14" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R14" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089304</v>
+        <v>3537.304858089303</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.030901807209</v>
+        <v>3537.304858089303</v>
       </c>
       <c r="U14" t="n">
-        <v>3109.963404427462</v>
+        <v>3304.237360709555</v>
       </c>
       <c r="V14" t="n">
-        <v>3109.963404427462</v>
+        <v>2993.8005091501</v>
       </c>
       <c r="W14" t="n">
-        <v>2777.820784941464</v>
+        <v>2661.657889664102</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.9810624645</v>
+        <v>2308.818167187138</v>
       </c>
       <c r="Y14" t="n">
-        <v>2055.467766272805</v>
+        <v>1939.304870995443</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I15" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J15" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K15" t="n">
-        <v>400.9597691519543</v>
+        <v>400.9597691519542</v>
       </c>
       <c r="L15" t="n">
-        <v>902.7168580368343</v>
+        <v>902.7168580368341</v>
       </c>
       <c r="M15" t="n">
         <v>1079.17492294035</v>
       </c>
       <c r="N15" t="n">
-        <v>1667.937391818767</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O15" t="n">
-        <v>2214.519473647356</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P15" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.402498082636</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>330.2459633855845</v>
+        <v>482.4662612480531</v>
       </c>
       <c r="C16" t="n">
-        <v>330.2459633855845</v>
+        <v>482.4662612480531</v>
       </c>
       <c r="D16" t="n">
-        <v>200.7553597573648</v>
+        <v>482.4662612480531</v>
       </c>
       <c r="E16" t="n">
-        <v>73.46830195908778</v>
+        <v>355.179203449776</v>
       </c>
       <c r="F16" t="n">
-        <v>73.46830195908778</v>
+        <v>355.179203449776</v>
       </c>
       <c r="G16" t="n">
-        <v>73.46830195908778</v>
+        <v>207.1881338019339</v>
       </c>
       <c r="H16" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814362</v>
+        <v>75.45401965814357</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164735</v>
+        <v>195.5491741164734</v>
       </c>
       <c r="L16" t="n">
-        <v>399.1026573432036</v>
+        <v>399.1026573432035</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459856</v>
+        <v>623.0114736459855</v>
       </c>
       <c r="N16" t="n">
-        <v>847.5115364327552</v>
+        <v>847.511536432755</v>
       </c>
       <c r="O16" t="n">
         <v>1040.400604995802</v>
@@ -5461,25 +5461,25 @@
         <v>1097.326054260998</v>
       </c>
       <c r="S16" t="n">
-        <v>1006.567156111744</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="T16" t="n">
-        <v>1006.567156111744</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="U16" t="n">
-        <v>1006.567156111744</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="V16" t="n">
-        <v>1006.567156111744</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="W16" t="n">
-        <v>737.7760218588999</v>
+        <v>828.5349200081538</v>
       </c>
       <c r="X16" t="n">
-        <v>530.4125067449986</v>
+        <v>828.5349200081538</v>
       </c>
       <c r="Y16" t="n">
-        <v>330.2459633855845</v>
+        <v>643.4886902941769</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C17" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E17" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053347</v>
+        <v>681.6982062053341</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H17" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019733</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J17" t="n">
         <v>260.2054441404284</v>
@@ -5525,40 +5525,40 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N17" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O17" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P17" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q17" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R17" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S17" t="n">
         <v>3599.316468553515</v>
       </c>
       <c r="T17" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735631</v>
       </c>
       <c r="U17" t="n">
-        <v>3295.998235820096</v>
+        <v>3295.998235820095</v>
       </c>
       <c r="V17" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724852</v>
       </c>
       <c r="W17" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703066</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690314</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.11218796283</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J18" t="n">
-        <v>73.46830195908778</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K18" t="n">
-        <v>400.9597691519543</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L18" t="n">
-        <v>535.5849161864097</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.090994202426</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.176974532444</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O18" t="n">
         <v>2006.542958788865</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.9356269804414</v>
+        <v>556.6438483590755</v>
       </c>
       <c r="C19" t="n">
-        <v>398.6370903008623</v>
+        <v>470.3453116794964</v>
       </c>
       <c r="D19" t="n">
-        <v>331.1580971368545</v>
+        <v>402.8663185154886</v>
       </c>
       <c r="E19" t="n">
-        <v>265.8826498027892</v>
+        <v>337.5908711814234</v>
       </c>
       <c r="F19" t="n">
-        <v>201.6303485532067</v>
+        <v>273.3385699318409</v>
       </c>
       <c r="G19" t="n">
-        <v>115.6508893695764</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H19" t="n">
         <v>115.6508893695764</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484215</v>
       </c>
       <c r="L19" t="n">
         <v>581.4353955911256</v>
@@ -5695,28 +5695,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R19" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S19" t="n">
-        <v>1568.878511444345</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T19" t="n">
-        <v>1425.843120997306</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U19" t="n">
-        <v>1219.32803116364</v>
+        <v>1317.98787023207</v>
       </c>
       <c r="V19" t="n">
-        <v>1047.281189206081</v>
+        <v>1145.941028274511</v>
       </c>
       <c r="W19" t="n">
-        <v>867.4532831072449</v>
+        <v>939.1615044858786</v>
       </c>
       <c r="X19" t="n">
-        <v>722.1013784575555</v>
+        <v>793.8095998361891</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.9464455623532</v>
+        <v>655.6546669409873</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>1875.149994147037</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053351</v>
+        <v>681.6982062053344</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274012</v>
+        <v>347.2251968274006</v>
       </c>
       <c r="H20" t="n">
-        <v>111.4054709019732</v>
+        <v>111.4054709019727</v>
       </c>
       <c r="I20" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J20" t="n">
-        <v>260.2054441404284</v>
+        <v>260.205444140428</v>
       </c>
       <c r="K20" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075376</v>
       </c>
       <c r="L20" t="n">
         <v>1210.096241442436</v>
@@ -5762,22 +5762,22 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N20" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O20" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P20" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S20" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T20" t="n">
         <v>3467.054122735633</v>
@@ -5786,10 +5786,10 @@
         <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X20" t="n">
         <v>2486.613873690315</v>
@@ -5826,7 +5826,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I21" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J21" t="n">
         <v>190.9942848817978</v>
@@ -5835,16 +5835,16 @@
         <v>256.6651674322115</v>
       </c>
       <c r="L21" t="n">
-        <v>542.2925146982043</v>
+        <v>758.4222563170914</v>
       </c>
       <c r="M21" t="n">
-        <v>1179.79859271422</v>
+        <v>1395.928334333107</v>
       </c>
       <c r="N21" t="n">
-        <v>1849.884573044239</v>
+        <v>1591.465364063007</v>
       </c>
       <c r="O21" t="n">
-        <v>2006.542958788865</v>
+        <v>2138.047445891596</v>
       </c>
       <c r="P21" t="n">
         <v>2428.220199306442</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>442.7530395699529</v>
+        <v>457.984009290645</v>
       </c>
       <c r="C22" t="n">
-        <v>356.4545028903738</v>
+        <v>371.685472611066</v>
       </c>
       <c r="D22" t="n">
-        <v>288.9755097263658</v>
+        <v>304.2064794470581</v>
       </c>
       <c r="E22" t="n">
-        <v>223.7000623923005</v>
+        <v>238.9310321129929</v>
       </c>
       <c r="F22" t="n">
-        <v>159.4477611427181</v>
+        <v>174.6787308634104</v>
       </c>
       <c r="G22" t="n">
-        <v>73.46830195908778</v>
+        <v>145.176523337722</v>
       </c>
       <c r="H22" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I22" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K22" t="n">
         <v>317.1043329484214</v>
@@ -5923,7 +5923,7 @@
         <v>1151.399433512625</v>
       </c>
       <c r="O22" t="n">
-        <v>1405.066081491645</v>
+        <v>1405.066081491646</v>
       </c>
       <c r="P22" t="n">
         <v>1610.290558075366</v>
@@ -5932,28 +5932,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1645.558300053002</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="S22" t="n">
-        <v>1520.576850288156</v>
+        <v>1568.878511444345</v>
       </c>
       <c r="T22" t="n">
-        <v>1377.541459841117</v>
+        <v>1425.843120997306</v>
       </c>
       <c r="U22" t="n">
-        <v>1171.026370007451</v>
+        <v>1219.32803116364</v>
       </c>
       <c r="V22" t="n">
-        <v>998.9795280498922</v>
+        <v>1047.281189206081</v>
       </c>
       <c r="W22" t="n">
-        <v>792.2000042612593</v>
+        <v>840.5016654174485</v>
       </c>
       <c r="X22" t="n">
-        <v>646.8480996115699</v>
+        <v>695.1497607677591</v>
       </c>
       <c r="Y22" t="n">
-        <v>508.6931667163676</v>
+        <v>556.9948278725568</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C23" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E23" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053348</v>
+        <v>681.6982062053344</v>
       </c>
       <c r="G23" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968274006</v>
       </c>
       <c r="H23" t="n">
-        <v>111.4054709019729</v>
+        <v>111.4054709019727</v>
       </c>
       <c r="I23" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J23" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K23" t="n">
-        <v>660.8208179075382</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L23" t="n">
         <v>1210.096241442436</v>
@@ -6008,10 +6008,10 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q23" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R23" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S23" t="n">
         <v>3599.316468553515</v>
@@ -6020,19 +6020,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U23" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V23" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W23" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X23" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y23" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I24" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J24" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K24" t="n">
-        <v>518.4857520746643</v>
+        <v>400.9597691519542</v>
       </c>
       <c r="L24" t="n">
-        <v>653.1108991091197</v>
+        <v>902.7168580368341</v>
       </c>
       <c r="M24" t="n">
-        <v>1290.616977125136</v>
+        <v>1264.423847230376</v>
       </c>
       <c r="N24" t="n">
-        <v>1960.702957455154</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O24" t="n">
-        <v>2117.361343199781</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P24" t="n">
         <v>2428.220199306442</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.6823481344544</v>
+        <v>409.6823481344558</v>
       </c>
       <c r="C25" t="n">
-        <v>323.3838114548752</v>
+        <v>409.6823481344558</v>
       </c>
       <c r="D25" t="n">
-        <v>255.9048182908673</v>
+        <v>342.203354970448</v>
       </c>
       <c r="E25" t="n">
-        <v>190.6293709568019</v>
+        <v>276.9279076363828</v>
       </c>
       <c r="F25" t="n">
-        <v>126.3770697072193</v>
+        <v>273.3385699318409</v>
       </c>
       <c r="G25" t="n">
-        <v>73.46830195908778</v>
+        <v>187.3591107482106</v>
       </c>
       <c r="H25" t="n">
-        <v>73.46830195908778</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I25" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J25" t="n">
         <v>136.2315990741175</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M25" t="n">
-        <v>866.121791309881</v>
+        <v>866.1217913098815</v>
       </c>
       <c r="N25" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O25" t="n">
-        <v>1405.066081491645</v>
+        <v>1405.066081491646</v>
       </c>
       <c r="P25" t="n">
-        <v>1610.290558075365</v>
+        <v>1610.290558075366</v>
       </c>
       <c r="Q25" t="n">
         <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S25" t="n">
-        <v>1520.576850288155</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T25" t="n">
-        <v>1377.541459841116</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U25" t="n">
-        <v>1171.02637000745</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V25" t="n">
-        <v>998.9795280498913</v>
+        <v>998.9795280498928</v>
       </c>
       <c r="W25" t="n">
-        <v>792.2000042612584</v>
+        <v>792.20000426126</v>
       </c>
       <c r="X25" t="n">
-        <v>646.8480996115688</v>
+        <v>646.8480996115705</v>
       </c>
       <c r="Y25" t="n">
-        <v>508.6931667163664</v>
+        <v>508.6931667163676</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1010.046464746614</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053347</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H26" t="n">
         <v>111.4054709019728</v>
@@ -6230,16 +6230,16 @@
         <v>660.8208179075382</v>
       </c>
       <c r="L26" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442437</v>
       </c>
       <c r="M26" t="n">
         <v>1837.877529641655</v>
       </c>
       <c r="N26" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O26" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P26" t="n">
         <v>3430.660101634156</v>
@@ -6248,13 +6248,13 @@
         <v>3673.415097954389</v>
       </c>
       <c r="R26" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S26" t="n">
         <v>3599.316468553515</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U26" t="n">
         <v>3295.998235820096</v>
@@ -6303,19 +6303,19 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J27" t="n">
-        <v>73.46830195908778</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K27" t="n">
-        <v>139.1391845095015</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L27" t="n">
-        <v>640.8962733943814</v>
+        <v>653.1108991091197</v>
       </c>
       <c r="M27" t="n">
-        <v>1278.402351410397</v>
+        <v>1290.616977125136</v>
       </c>
       <c r="N27" t="n">
-        <v>1948.488331740415</v>
+        <v>1960.702957455154</v>
       </c>
       <c r="O27" t="n">
         <v>2321.821099742403</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>514.4612609485871</v>
+        <v>409.6823481344552</v>
       </c>
       <c r="C28" t="n">
-        <v>428.162724269008</v>
+        <v>323.3838114548761</v>
       </c>
       <c r="D28" t="n">
-        <v>360.6837311050002</v>
+        <v>255.9048182908682</v>
       </c>
       <c r="E28" t="n">
-        <v>295.4082837709349</v>
+        <v>190.6293709568029</v>
       </c>
       <c r="F28" t="n">
-        <v>231.1559825213524</v>
+        <v>190.6293709568029</v>
       </c>
       <c r="G28" t="n">
-        <v>145.1765233377221</v>
+        <v>104.6499117731726</v>
       </c>
       <c r="H28" t="n">
         <v>73.46830195908778</v>
@@ -6385,16 +6385,16 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484214</v>
+        <v>317.104332948421</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911251</v>
       </c>
       <c r="M28" t="n">
-        <v>866.1217913098815</v>
+        <v>866.121791309881</v>
       </c>
       <c r="N28" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O28" t="n">
         <v>1405.066081491645</v>
@@ -6406,28 +6406,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R28" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S28" t="n">
-        <v>1568.878511444345</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T28" t="n">
-        <v>1482.320372655249</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.805282821583</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V28" t="n">
-        <v>1103.758440864023</v>
+        <v>998.979528049892</v>
       </c>
       <c r="W28" t="n">
-        <v>896.9789170753907</v>
+        <v>792.2000042612592</v>
       </c>
       <c r="X28" t="n">
-        <v>751.6270124257012</v>
+        <v>646.8480996115698</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.4720795304989</v>
+        <v>508.693166716367</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>681.6982062053351</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H29" t="n">
         <v>111.4054709019728</v>
@@ -6543,13 +6543,13 @@
         <v>190.9942848817978</v>
       </c>
       <c r="K30" t="n">
-        <v>256.6651674322115</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L30" t="n">
-        <v>391.2903144666668</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M30" t="n">
-        <v>1028.796392482683</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N30" t="n">
         <v>1459.960876960276</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>514.4612609485869</v>
+        <v>457.9840092906444</v>
       </c>
       <c r="C31" t="n">
-        <v>428.1627242690078</v>
+        <v>371.6854726110653</v>
       </c>
       <c r="D31" t="n">
-        <v>360.6837311049999</v>
+        <v>304.2064794470574</v>
       </c>
       <c r="E31" t="n">
-        <v>295.4082837709346</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="F31" t="n">
-        <v>231.1559825213521</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="G31" t="n">
-        <v>145.1765233377221</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H31" t="n">
-        <v>73.46830195908778</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I31" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J31" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911255</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M31" t="n">
         <v>866.1217913098812</v>
@@ -6643,28 +6643,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R31" t="n">
-        <v>1645.558300053001</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="S31" t="n">
-        <v>1625.355763102286</v>
+        <v>1568.878511444344</v>
       </c>
       <c r="T31" t="n">
-        <v>1482.320372655248</v>
+        <v>1425.843120997305</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.805282821582</v>
+        <v>1219.32803116364</v>
       </c>
       <c r="V31" t="n">
-        <v>1103.758440864023</v>
+        <v>1047.281189206081</v>
       </c>
       <c r="W31" t="n">
-        <v>896.9789170753904</v>
+        <v>840.5016654174481</v>
       </c>
       <c r="X31" t="n">
-        <v>751.627012425701</v>
+        <v>695.1497607677586</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.4720795304987</v>
+        <v>556.9948278725562</v>
       </c>
     </row>
     <row r="32">
@@ -6722,22 +6722,22 @@
         <v>3673.415097954388</v>
       </c>
       <c r="R32" t="n">
-        <v>3671.978247677241</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S32" t="n">
-        <v>3604.043903880232</v>
+        <v>3605.48075415738</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.945843666214</v>
+        <v>3479.382693943362</v>
       </c>
       <c r="U32" t="n">
-        <v>3313.054242354543</v>
+        <v>3225.689160779498</v>
       </c>
       <c r="V32" t="n">
-        <v>3070.793286863165</v>
+        <v>2979.765853082341</v>
       </c>
       <c r="W32" t="n">
-        <v>2718.02463159305</v>
+        <v>2715.799129664419</v>
       </c>
       <c r="X32" t="n">
         <v>2431.135303255532</v>
@@ -6783,13 +6783,13 @@
         <v>518.4857520746643</v>
       </c>
       <c r="L33" t="n">
-        <v>653.1108991091197</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M33" t="n">
-        <v>1290.616977125136</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.884573044239</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O33" t="n">
         <v>2006.542958788865</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.4938491320218</v>
+        <v>513.4938491320221</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563075</v>
+        <v>433.3595980563078</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961644</v>
+        <v>372.0448904961647</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659639</v>
+        <v>312.9337287659642</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202462</v>
+        <v>254.8457131202465</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404812</v>
+        <v>175.030539540481</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4866037657116</v>
+        <v>109.4866037657117</v>
       </c>
       <c r="I34" t="n">
         <v>73.46830195908777</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944654</v>
+        <v>142.2732153944652</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891171</v>
+        <v>329.187565589117</v>
       </c>
       <c r="L34" t="n">
-        <v>599.560244552169</v>
+        <v>599.5602445521689</v>
       </c>
       <c r="M34" t="n">
-        <v>890.2882565912728</v>
+        <v>890.2882565912726</v>
       </c>
       <c r="N34" t="n">
         <v>1181.607515114364</v>
       </c>
       <c r="O34" t="n">
-        <v>1441.315779413733</v>
+        <v>1441.315779413732</v>
       </c>
       <c r="P34" t="n">
         <v>1652.581872317801</v>
@@ -6883,25 +6883,25 @@
         <v>1700.055516219649</v>
       </c>
       <c r="S34" t="n">
-        <v>1581.238352058668</v>
+        <v>1581.238352058669</v>
       </c>
       <c r="T34" t="n">
         <v>1444.367247215494</v>
       </c>
       <c r="U34" t="n">
-        <v>1244.016442985693</v>
+        <v>1244.016442985694</v>
       </c>
       <c r="V34" t="n">
         <v>1078.133886631999</v>
       </c>
       <c r="W34" t="n">
-        <v>877.518648447231</v>
+        <v>877.5186484472314</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014063</v>
+        <v>738.3310294014067</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100688</v>
+        <v>606.3403821100692</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>71.58127575382304</v>
       </c>
       <c r="J35" t="n">
-        <v>165.8541338771919</v>
+        <v>258.3184179351637</v>
       </c>
       <c r="K35" t="n">
-        <v>566.4695076443015</v>
+        <v>658.9337917022733</v>
       </c>
       <c r="L35" t="n">
-        <v>1115.7449311792</v>
+        <v>1208.209215237172</v>
       </c>
       <c r="M35" t="n">
-        <v>1743.526219378418</v>
+        <v>1835.990503436391</v>
       </c>
       <c r="N35" t="n">
-        <v>2366.833667600018</v>
+        <v>2459.29795165799</v>
       </c>
       <c r="O35" t="n">
         <v>2910.217578206718</v>
@@ -6974,7 +6974,7 @@
         <v>2977.878826877076</v>
       </c>
       <c r="W35" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X35" t="n">
         <v>2429.248277050267</v>
@@ -7014,19 +7014,19 @@
         <v>71.58127575382304</v>
       </c>
       <c r="J36" t="n">
-        <v>189.107258676533</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K36" t="n">
-        <v>513.197350208178</v>
+        <v>516.5987258693996</v>
       </c>
       <c r="L36" t="n">
-        <v>1014.954439093058</v>
+        <v>1018.35581475428</v>
       </c>
       <c r="M36" t="n">
-        <v>1652.460517109074</v>
+        <v>1262.536821025112</v>
       </c>
       <c r="N36" t="n">
-        <v>1847.997546838974</v>
+        <v>1458.073850755012</v>
       </c>
       <c r="O36" t="n">
         <v>2004.655932583601</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267571</v>
+        <v>511.6068229267576</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510428</v>
+        <v>431.4725718510433</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642908996</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606991</v>
+        <v>311.0467025606996</v>
       </c>
       <c r="F37" t="n">
-        <v>252.9586869149816</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352161</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5995775604467</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I37" t="n">
         <v>71.58127575382304</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892008</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838525</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469046</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M37" t="n">
         <v>888.4012303860084</v>
@@ -7111,13 +7111,13 @@
         <v>1439.428753208468</v>
       </c>
       <c r="P37" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q37" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R37" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S37" t="n">
         <v>1579.351325853404</v>
@@ -7129,16 +7129,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419664</v>
+        <v>875.6316222419669</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961417</v>
+        <v>736.4440031961421</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048042</v>
+        <v>604.4533559048047</v>
       </c>
     </row>
     <row r="38">
@@ -7157,31 +7157,31 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258906</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884756</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144064</v>
+        <v>333.0095994144065</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3541590928432</v>
+        <v>103.3541590928433</v>
       </c>
       <c r="I38" t="n">
         <v>71.58127575382304</v>
       </c>
       <c r="J38" t="n">
-        <v>258.3184179351637</v>
+        <v>165.8541338771915</v>
       </c>
       <c r="K38" t="n">
-        <v>658.9337917022733</v>
+        <v>566.4695076443012</v>
       </c>
       <c r="L38" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.744931179199</v>
       </c>
       <c r="M38" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378418</v>
       </c>
       <c r="N38" t="n">
         <v>2366.833667600018</v>
@@ -7211,13 +7211,13 @@
         <v>2977.878826877076</v>
       </c>
       <c r="W38" t="n">
-        <v>2713.912103459154</v>
+        <v>2713.912103459155</v>
       </c>
       <c r="X38" t="n">
         <v>2429.248277050267</v>
       </c>
       <c r="Y38" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>71.58127575382304</v>
       </c>
       <c r="J39" t="n">
-        <v>189.107258676533</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K39" t="n">
-        <v>476.9046584870225</v>
+        <v>516.5987258693996</v>
       </c>
       <c r="L39" t="n">
-        <v>611.5298055214779</v>
+        <v>855.6836294464774</v>
       </c>
       <c r="M39" t="n">
-        <v>787.9878704249938</v>
+        <v>1493.189707462494</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.073850755012</v>
+        <v>2163.275687792512</v>
       </c>
       <c r="O39" t="n">
-        <v>2004.655932583601</v>
+        <v>2319.934073537138</v>
       </c>
       <c r="P39" t="n">
         <v>2426.333173101178</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267574</v>
       </c>
       <c r="C40" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510431</v>
       </c>
       <c r="D40" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E40" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F40" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H40" t="n">
-        <v>107.5995775604469</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I40" t="n">
         <v>71.58127575382304</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892009</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838528</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469048</v>
       </c>
       <c r="M40" t="n">
-        <v>888.4012303860081</v>
+        <v>888.4012303860086</v>
       </c>
       <c r="N40" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O40" t="n">
         <v>1439.428753208468</v>
@@ -7351,7 +7351,7 @@
         <v>1650.694846112536</v>
       </c>
       <c r="Q40" t="n">
-        <v>1740.305865566709</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R40" t="n">
         <v>1698.168490014385</v>
@@ -7360,7 +7360,7 @@
         <v>1579.351325853404</v>
       </c>
       <c r="T40" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U40" t="n">
         <v>1242.129416780429</v>
@@ -7369,13 +7369,13 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419669</v>
+        <v>875.6316222419667</v>
       </c>
       <c r="X40" t="n">
-        <v>736.4440031961421</v>
+        <v>736.444003196142</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="41">
@@ -7409,13 +7409,13 @@
         <v>71.58127575382304</v>
       </c>
       <c r="J41" t="n">
-        <v>258.3184179351637</v>
+        <v>165.8541338771915</v>
       </c>
       <c r="K41" t="n">
-        <v>658.9337917022733</v>
+        <v>566.4695076443012</v>
       </c>
       <c r="L41" t="n">
-        <v>1115.7449311792</v>
+        <v>1115.744931179199</v>
       </c>
       <c r="M41" t="n">
         <v>1743.526219378418</v>
@@ -7448,7 +7448,7 @@
         <v>2977.878826877076</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.912103459154</v>
+        <v>2713.912103459155</v>
       </c>
       <c r="X41" t="n">
         <v>2429.248277050267</v>
@@ -7488,25 +7488,25 @@
         <v>71.58127575382304</v>
       </c>
       <c r="J42" t="n">
-        <v>71.58127575382304</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K42" t="n">
-        <v>399.0727429466895</v>
+        <v>516.5987258693996</v>
       </c>
       <c r="L42" t="n">
-        <v>900.8298318315694</v>
+        <v>1018.35581475428</v>
       </c>
       <c r="M42" t="n">
-        <v>1538.335909847585</v>
+        <v>1194.813879657795</v>
       </c>
       <c r="N42" t="n">
-        <v>2208.421890177603</v>
+        <v>1458.073850755012</v>
       </c>
       <c r="O42" t="n">
-        <v>2365.08027592223</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P42" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.515471877372</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267573</v>
+        <v>511.606822926758</v>
       </c>
       <c r="C43" t="n">
-        <v>431.472571851043</v>
+        <v>431.4725718510437</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642908999</v>
+        <v>370.1578642909005</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606994</v>
+        <v>311.0467025607001</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149817</v>
+        <v>252.9586869149823</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352162</v>
+        <v>173.1435133352168</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5995775604467</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I43" t="n">
         <v>71.58127575382304</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892008</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K43" t="n">
         <v>327.3005393838524</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469051</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860084</v>
+        <v>888.4012303860088</v>
       </c>
       <c r="N43" t="n">
         <v>1179.7204889091</v>
       </c>
       <c r="O43" t="n">
-        <v>1439.428753208468</v>
+        <v>1439.428753208469</v>
       </c>
       <c r="P43" t="n">
         <v>1650.694846112537</v>
@@ -7603,16 +7603,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V43" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419664</v>
+        <v>875.6316222419671</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961417</v>
+        <v>736.4440031961424</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048043</v>
+        <v>604.453355904805</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>983.5022961258901</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884752</v>
+        <v>661.3183231884757</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0095994144062</v>
+        <v>333.0095994144067</v>
       </c>
       <c r="H44" t="n">
         <v>103.3541590928432</v>
@@ -7652,16 +7652,16 @@
         <v>658.9337917022733</v>
       </c>
       <c r="L44" t="n">
-        <v>1208.209215237171</v>
+        <v>1208.209215237172</v>
       </c>
       <c r="M44" t="n">
-        <v>1835.99050343639</v>
+        <v>1835.990503436391</v>
       </c>
       <c r="N44" t="n">
-        <v>2366.833667600018</v>
+        <v>2459.29795165799</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.217578206718</v>
+        <v>3002.68186226469</v>
       </c>
       <c r="P44" t="n">
         <v>3336.308791370919</v>
@@ -7679,10 +7679,10 @@
         <v>3385.031383680126</v>
       </c>
       <c r="U44" t="n">
-        <v>3220.139782368453</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V44" t="n">
-        <v>2977.878826877075</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W44" t="n">
         <v>2713.912103459154</v>
@@ -7725,25 +7725,25 @@
         <v>71.58127575382304</v>
       </c>
       <c r="J45" t="n">
-        <v>189.107258676533</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K45" t="n">
-        <v>254.7781412269467</v>
+        <v>516.5987258693996</v>
       </c>
       <c r="L45" t="n">
-        <v>389.4032882614021</v>
+        <v>1018.35581475428</v>
       </c>
       <c r="M45" t="n">
-        <v>995.9643852834845</v>
+        <v>1194.813879657795</v>
       </c>
       <c r="N45" t="n">
-        <v>1666.050365613502</v>
+        <v>1458.073850755012</v>
       </c>
       <c r="O45" t="n">
-        <v>2212.632447442091</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P45" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267573</v>
+        <v>511.6068229267574</v>
       </c>
       <c r="C46" t="n">
-        <v>431.472571851043</v>
+        <v>431.4725718510431</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642909</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606995</v>
+        <v>311.0467025606996</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149817</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1435133352163</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H46" t="n">
         <v>107.5995775604469</v>
@@ -7804,28 +7804,28 @@
         <v>71.58127575382304</v>
       </c>
       <c r="J46" t="n">
-        <v>140.3861891892004</v>
+        <v>140.3861891892008</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469043</v>
+        <v>597.6732183469046</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860081</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N46" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O46" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P46" t="n">
-        <v>1650.694846112537</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q46" t="n">
-        <v>1740.305865566709</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R46" t="n">
         <v>1698.168490014385</v>
@@ -7834,7 +7834,7 @@
         <v>1579.351325853404</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U46" t="n">
         <v>1242.129416780429</v>
@@ -7849,7 +7849,7 @@
         <v>736.4440031961417</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048044</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>85.99601778245191</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>195.9575865439089</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.377921277065369</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>397.19741328133</v>
+        <v>187.1201255454814</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599046</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.377921277065369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>68.40701148213802</v>
       </c>
       <c r="O18" t="n">
-        <v>6.775352032115535</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,19 +9483,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>152.5274749813509</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>185.6299533846536</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>187.1201255454812</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>206.5250066087096</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,7 +9966,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>218.8630123811727</v>
+        <v>206.5250066087098</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>238.0075300481755</v>
+        <v>68.40701148213773</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>367.4046123123262</v>
+        <v>68.40701148213773</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>75.69834844684978</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>287.4019145375208</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>261.0295040214457</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>68.40701148213751</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844684935</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>343.9486576867602</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>224.370219454622</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>206.5250066087095</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844684935</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>324.2629478252264</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>68.40701148213768</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>164.4750631044438</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,13 +11306,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>343.9486576867602</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>228.400441446258</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>434.4475071904712</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>68.40701148213768</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>361.5105946459869</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>392.5197736437242</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>162.5344785200419</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059507</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>136.2937816223333</v>
+        <v>365.8181632297787</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>159.4122047556624</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8270456723529</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>128.1956975919375</v>
@@ -23425,16 +23425,16 @@
         <v>126.0141872202943</v>
       </c>
       <c r="F13" t="n">
-        <v>125.0012725966563</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5111589513637</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>32.84560615637038</v>
+        <v>132.3826335244177</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959534</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>202.9965309021384</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8414332948985</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W13" t="n">
         <v>266.1032229103161</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>157.0019991849207</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>344.8531163447327</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>386.4562703154365</v>
       </c>
       <c r="G14" t="n">
-        <v>268.6868160049511</v>
+        <v>342.0849283588356</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556624</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>146.8270456723529</v>
+        <v>146.827045672353</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.1956975919375</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0012725966563</v>
+        <v>125.0012725966564</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5111589513636</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.3826335244176</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1522558959534</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>95.27182045900564</v>
+        <v>185.1231296267668</v>
       </c>
       <c r="T16" t="n">
         <v>202.9965309021384</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>14.96911050898276</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484794</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462663</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>145.4918852223727</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>26.6821015128989</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.73998452114214</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>55.91247914136288</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484798</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638381</v>
+        <v>41.76076153638377</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.81864454462659</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.0563339095902</v>
       </c>
       <c r="G25" t="n">
-        <v>32.73998452114417</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484804</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638388</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>63.6097782370867</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>40.12134544890401</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638381</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462665</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>55.91247914136356</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>34.06346244066117</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>63.6097782370867</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.7607615363838</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S31" t="n">
-        <v>103.731123685989</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>82104.17698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
-        <v>70912.15842241577</v>
+        <v>70912.15842241576</v>
       </c>
       <c r="F2" t="n">
-        <v>70912.15842241574</v>
+        <v>70912.15842241573</v>
       </c>
       <c r="G2" t="n">
-        <v>81754.99646189461</v>
+        <v>81754.99646189457</v>
       </c>
       <c r="H2" t="n">
-        <v>81754.99646189464</v>
+        <v>81754.99646189463</v>
       </c>
       <c r="I2" t="n">
         <v>81754.99646189461</v>
       </c>
       <c r="J2" t="n">
-        <v>81754.99646189454</v>
+        <v>81754.99646189464</v>
       </c>
       <c r="K2" t="n">
-        <v>81754.99646189457</v>
+        <v>81754.99646189455</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="M2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642831</v>
       </c>
-      <c r="O2" t="n">
-        <v>82104.17698642834</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.1769864283</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690849.4200146754</v>
+        <v>690849.4200146751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765573</v>
+        <v>49113.19548765577</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012621</v>
+        <v>79395.76294012612</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591663</v>
+        <v>53995.3096859167</v>
       </c>
       <c r="M3" t="n">
         <v>162917.5281914783</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101997</v>
+        <v>16335.82034101986</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>53556.37033101671</v>
+        <v>53556.37033101667</v>
       </c>
       <c r="F4" t="n">
-        <v>53556.37033101672</v>
+        <v>53556.37033101668</v>
       </c>
       <c r="G4" t="n">
         <v>115595.2824310509</v>
@@ -26436,7 +26436,7 @@
         <v>115595.2824310509</v>
       </c>
       <c r="I4" t="n">
-        <v>115595.2824310508</v>
+        <v>115595.2824310509</v>
       </c>
       <c r="J4" t="n">
         <v>115595.2824310509</v>
@@ -26451,7 +26451,7 @@
         <v>121007.6800072955</v>
       </c>
       <c r="N4" t="n">
-        <v>121007.6800072954</v>
+        <v>121007.6800072955</v>
       </c>
       <c r="O4" t="n">
         <v>121007.6800072955</v>
@@ -26476,40 +26476,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70367.55973007939</v>
+        <v>70367.55973007937</v>
       </c>
       <c r="F5" t="n">
-        <v>70367.55973007939</v>
+        <v>70367.55973007937</v>
       </c>
       <c r="G5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="H5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="I5" t="n">
         <v>75528.68126939404</v>
       </c>
       <c r="J5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="K5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="L5" t="n">
         <v>76041.72434256104</v>
       </c>
       <c r="M5" t="n">
-        <v>74607.58442655984</v>
+        <v>74607.58442655986</v>
       </c>
       <c r="N5" t="n">
-        <v>74607.58442655984</v>
+        <v>74607.58442655986</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655984</v>
+        <v>74607.58442655986</v>
       </c>
       <c r="P5" t="n">
-        <v>74607.58442655984</v>
+        <v>74607.58442655986</v>
       </c>
     </row>
     <row r="6">
@@ -26522,40 +26522,40 @@
         <v>-359541.8977275981</v>
       </c>
       <c r="C6" t="n">
-        <v>-278772.4661960504</v>
+        <v>-278772.4661960505</v>
       </c>
       <c r="D6" t="n">
         <v>-278772.4661960505</v>
       </c>
       <c r="E6" t="n">
-        <v>-743861.1916533557</v>
+        <v>-744140.9921174558</v>
       </c>
       <c r="F6" t="n">
-        <v>-53011.77163868037</v>
+        <v>-53291.57210278064</v>
       </c>
       <c r="G6" t="n">
-        <v>-158482.1627262061</v>
+        <v>-158490.8922393195</v>
       </c>
       <c r="H6" t="n">
-        <v>-109368.9672385503</v>
+        <v>-109377.6967516637</v>
       </c>
       <c r="I6" t="n">
-        <v>-109368.9672385502</v>
+        <v>-109377.6967516637</v>
       </c>
       <c r="J6" t="n">
-        <v>-188764.7301786766</v>
+        <v>-188773.4596917898</v>
       </c>
       <c r="K6" t="n">
-        <v>-109368.9672385504</v>
+        <v>-109377.6967516637</v>
       </c>
       <c r="L6" t="n">
-        <v>-165536.2130655541</v>
+        <v>-165536.2130655542</v>
       </c>
       <c r="M6" t="n">
         <v>-276428.6156389053</v>
       </c>
       <c r="N6" t="n">
-        <v>-113511.0874474269</v>
+        <v>-113511.087447427</v>
       </c>
       <c r="O6" t="n">
         <v>-129846.9077884469</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="G2" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H2" t="n">
+        <v>81.8112697858446</v>
+      </c>
+      <c r="I2" t="n">
+        <v>81.8112697858446</v>
+      </c>
+      <c r="J2" t="n">
         <v>81.81126978584454</v>
       </c>
-      <c r="I2" t="n">
-        <v>81.81126978584449</v>
-      </c>
-      <c r="J2" t="n">
-        <v>81.81126978584456</v>
-      </c>
       <c r="K2" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L2" t="n">
         <v>87.9139125336707</v>
       </c>
       <c r="M2" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N2" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O2" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P2" t="n">
         <v>87.91391253367071</v>
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="F3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="G3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="H3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="I3" t="n">
         <v>587.843125727577</v>
@@ -26768,16 +26768,16 @@
         <v>587.843125727577</v>
       </c>
       <c r="M3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275771</v>
       </c>
       <c r="N3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275771</v>
       </c>
       <c r="O3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275771</v>
       </c>
       <c r="P3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275771</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="F4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="G4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="H4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="I4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="J4" t="n">
         <v>918.3537744885972</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956966</v>
+        <v>61.39149435956972</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627482</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.49413710739579</v>
+        <v>67.49413710739587</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627482</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>677.3394856109381</v>
+        <v>677.339485610938</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956966</v>
+        <v>61.39149435956972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627498</v>
+        <v>20.41977542627482</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>677.3394856109381</v>
+        <v>677.339485610938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>2.450847870282672</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27430,22 +27430,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>128.5959670235642</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>105.0757132227464</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>99.13236618591716</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27582,13 +27582,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>376.9426890186807</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10.31505646155395</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>15.13668630652185</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.82119428255908</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>343.0581095130796</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,28 +27895,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.69349493588004</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>104.3983415011525</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>203.6756636163529</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627488</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.81126978584457</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I20" t="n">
-        <v>81.8112697858441</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584449</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584456</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="32">
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S32" t="n">
         <v>87.9139125336707</v>
@@ -29803,16 +29803,16 @@
         <v>87.9139125336707</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>84.28818384994923</v>
+      </c>
+      <c r="W32" t="n">
         <v>87.9139125336707</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>87.9139125336707</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>85.71066562432554</v>
       </c>
       <c r="Y32" t="n">
         <v>87.9139125336707</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367095</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="K37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="L37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="M37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="R37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="S37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.9139125336701</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="K40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="L40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="M40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="R40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="S40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367112</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="K43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="L43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="M43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="R43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="S43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S44" t="n">
         <v>87.91391253367071</v>
@@ -31756,7 +31756,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I11" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J11" t="n">
         <v>200.5726652953606</v>
@@ -31765,16 +31765,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L11" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M11" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N11" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O11" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P11" t="n">
         <v>339.8294523961115</v>
@@ -31786,10 +31786,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S11" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T11" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U11" t="n">
         <v>0.1890550756108789</v>
@@ -31835,43 +31835,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I12" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J12" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K12" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L12" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M12" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N12" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O12" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P12" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q12" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R12" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S12" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T12" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H13" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I13" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J13" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K13" t="n">
         <v>123.1579532262038</v>
@@ -31938,7 +31938,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R13" t="n">
         <v>47.66347704669828</v>
@@ -31950,7 +31950,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31993,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I14" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J14" t="n">
         <v>200.5726652953606</v>
@@ -32002,16 +32002,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L14" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M14" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N14" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O14" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P14" t="n">
         <v>339.8294523961115</v>
@@ -32023,10 +32023,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S14" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T14" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U14" t="n">
         <v>0.1890550756108789</v>
@@ -32072,43 +32072,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I15" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J15" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K15" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L15" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M15" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N15" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O15" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P15" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q15" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R15" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S15" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T15" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H16" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I16" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J16" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K16" t="n">
         <v>123.1579532262038</v>
@@ -32175,7 +32175,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R16" t="n">
         <v>47.66347704669828</v>
@@ -32187,7 +32187,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135985</v>
       </c>
       <c r="H17" t="n">
-        <v>24.20200366374893</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I17" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J17" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953605</v>
       </c>
       <c r="K17" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L17" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M17" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669844</v>
       </c>
       <c r="N17" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O17" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354061</v>
       </c>
       <c r="P17" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q17" t="n">
         <v>255.1977662046789</v>
@@ -32260,13 +32260,13 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S17" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353632</v>
       </c>
       <c r="T17" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1890550756108789</v>
+        <v>0.1890550756108788</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I18" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303282</v>
       </c>
       <c r="J18" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K18" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L18" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M18" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215293</v>
       </c>
       <c r="N18" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256564</v>
       </c>
       <c r="O18" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P18" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q18" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412773</v>
       </c>
       <c r="R18" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S18" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T18" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.060044980820221</v>
+        <v>1.06004498082022</v>
       </c>
       <c r="H19" t="n">
-        <v>9.424763556747061</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I19" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502991</v>
       </c>
       <c r="J19" t="n">
-        <v>74.94518014398962</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K19" t="n">
         <v>123.1579532262038</v>
@@ -32409,22 +32409,22 @@
         <v>149.8325396526618</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2076220439292</v>
+        <v>128.2076220439291</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R19" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S19" t="n">
-        <v>18.47369298393057</v>
+        <v>18.47369298393056</v>
       </c>
       <c r="T19" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I20" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J20" t="n">
         <v>200.5726652953606</v>
@@ -32476,16 +32476,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L20" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M20" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N20" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O20" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P20" t="n">
         <v>339.8294523961115</v>
@@ -32497,10 +32497,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S20" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T20" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U20" t="n">
         <v>0.1890550756108789</v>
@@ -32546,43 +32546,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I21" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J21" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K21" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L21" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M21" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N21" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O21" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P21" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q21" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R21" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S21" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T21" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H22" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I22" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J22" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K22" t="n">
         <v>123.1579532262038</v>
@@ -32649,7 +32649,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R22" t="n">
         <v>47.66347704669828</v>
@@ -32661,7 +32661,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I35" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J35" t="n">
         <v>200.5726652953606</v>
@@ -33661,16 +33661,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L35" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M35" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N35" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O35" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P35" t="n">
         <v>339.8294523961115</v>
@@ -33682,10 +33682,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S35" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T35" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U35" t="n">
         <v>0.1890550756108789</v>
@@ -33731,43 +33731,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I36" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J36" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K36" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L36" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M36" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N36" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O36" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P36" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q36" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R36" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S36" t="n">
-        <v>23.48599657977629</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T36" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H37" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I37" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J37" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K37" t="n">
         <v>123.1579532262038</v>
@@ -33834,7 +33834,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R37" t="n">
         <v>47.66347704669828</v>
@@ -33846,7 +33846,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I38" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J38" t="n">
         <v>200.5726652953606</v>
@@ -33898,16 +33898,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L38" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M38" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N38" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O38" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P38" t="n">
         <v>339.8294523961115</v>
@@ -33919,10 +33919,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S38" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T38" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U38" t="n">
         <v>0.1890550756108789</v>
@@ -33968,43 +33968,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I39" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J39" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K39" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L39" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M39" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N39" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O39" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P39" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q39" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R39" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S39" t="n">
-        <v>23.48599657977629</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T39" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,13 +34044,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H40" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I40" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J40" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K40" t="n">
         <v>123.1579532262038</v>
@@ -34071,7 +34071,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R40" t="n">
         <v>47.66347704669828</v>
@@ -34083,7 +34083,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I41" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J41" t="n">
         <v>200.5726652953606</v>
@@ -34135,16 +34135,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L41" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M41" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N41" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O41" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P41" t="n">
         <v>339.8294523961115</v>
@@ -34156,10 +34156,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S41" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T41" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U41" t="n">
         <v>0.1890550756108789</v>
@@ -34205,43 +34205,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I42" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J42" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K42" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L42" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M42" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N42" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O42" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P42" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q42" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R42" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S42" t="n">
-        <v>23.48599657977629</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T42" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H43" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I43" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J43" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K43" t="n">
         <v>123.1579532262038</v>
@@ -34308,7 +34308,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R43" t="n">
         <v>47.66347704669828</v>
@@ -34320,7 +34320,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I44" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J44" t="n">
         <v>200.5726652953606</v>
@@ -34372,16 +34372,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L44" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M44" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N44" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O44" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P44" t="n">
         <v>339.8294523961115</v>
@@ -34393,10 +34393,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S44" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T44" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U44" t="n">
         <v>0.1890550756108789</v>
@@ -34442,43 +34442,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I45" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J45" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K45" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L45" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M45" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N45" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O45" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P45" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q45" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R45" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S45" t="n">
-        <v>23.48599657977629</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T45" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,13 +34518,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H46" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I46" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J46" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K46" t="n">
         <v>123.1579532262038</v>
@@ -34545,7 +34545,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R46" t="n">
         <v>47.66347704669828</v>
@@ -34557,7 +34557,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K11" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L11" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M11" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N11" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O11" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P11" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q11" t="n">
         <v>245.2070669901341</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>78.61809650538655</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>330.7994618109763</v>
+        <v>262.2918113423065</v>
       </c>
       <c r="L12" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M12" t="n">
-        <v>178.2404695995112</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N12" t="n">
-        <v>676.8545255858768</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O12" t="n">
         <v>552.1031129581706</v>
@@ -35507,7 +35507,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q12" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591752</v>
+        <v>2.00577545359171</v>
       </c>
       <c r="K13" t="n">
-        <v>121.3082368265959</v>
+        <v>121.3082368265958</v>
       </c>
       <c r="L13" t="n">
-        <v>205.6095790168992</v>
+        <v>205.6095790168991</v>
       </c>
       <c r="M13" t="n">
-        <v>226.1705215179616</v>
+        <v>226.1705215179615</v>
       </c>
       <c r="N13" t="n">
         <v>226.7677401886561</v>
@@ -35583,10 +35583,10 @@
         <v>194.8374429929764</v>
       </c>
       <c r="P13" t="n">
-        <v>145.9059567350976</v>
+        <v>145.9059567350975</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02204415944466</v>
+        <v>23.02204415944462</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K14" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L14" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M14" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N14" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O14" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P14" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q14" t="n">
         <v>245.2070669901341</v>
@@ -35729,13 +35729,13 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L15" t="n">
-        <v>506.8253423079596</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M15" t="n">
-        <v>178.2404695995112</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N15" t="n">
-        <v>594.7095645236533</v>
+        <v>384.6322767878046</v>
       </c>
       <c r="O15" t="n">
         <v>552.1031129581706</v>
@@ -35744,7 +35744,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.41998375525588</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591752</v>
+        <v>2.00577545359171</v>
       </c>
       <c r="K16" t="n">
-        <v>121.3082368265959</v>
+        <v>121.3082368265958</v>
       </c>
       <c r="L16" t="n">
-        <v>205.6095790168992</v>
+        <v>205.6095790168991</v>
       </c>
       <c r="M16" t="n">
-        <v>226.1705215179616</v>
+        <v>226.1705215179615</v>
       </c>
       <c r="N16" t="n">
         <v>226.7677401886561</v>
@@ -35820,10 +35820,10 @@
         <v>194.8374429929764</v>
       </c>
       <c r="P16" t="n">
-        <v>145.9059567350976</v>
+        <v>145.9059567350975</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944466</v>
+        <v>23.02204415944462</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.6233759407481</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K17" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L17" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M17" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325441</v>
       </c>
       <c r="N17" t="n">
-        <v>629.6034830521205</v>
+        <v>629.6034830521203</v>
       </c>
       <c r="O17" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764647</v>
       </c>
       <c r="P17" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q17" t="n">
         <v>245.2070669901341</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K18" t="n">
-        <v>330.7994618109763</v>
+        <v>330.7994618109762</v>
       </c>
       <c r="L18" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M18" t="n">
-        <v>643.9455333495112</v>
+        <v>178.240469599511</v>
       </c>
       <c r="N18" t="n">
-        <v>676.8545255858768</v>
+        <v>265.9191627244612</v>
       </c>
       <c r="O18" t="n">
-        <v>165.0161457135567</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P18" t="n">
-        <v>425.9366065834112</v>
+        <v>425.9366065834111</v>
       </c>
       <c r="Q18" t="n">
-        <v>231.497271491105</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>182.6997311861655</v>
       </c>
       <c r="L19" t="n">
-        <v>267.0010733764689</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M19" t="n">
         <v>287.5620158775312</v>
@@ -36054,10 +36054,10 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O19" t="n">
-        <v>256.2289373525461</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P19" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
         <v>84.41353851901432</v>
@@ -36121,22 +36121,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K20" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L20" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M20" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N20" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O20" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P20" t="n">
-        <v>430.3951648123245</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q20" t="n">
         <v>245.2070669901341</v>
@@ -36200,22 +36200,22 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K21" t="n">
-        <v>66.33422479839768</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L21" t="n">
-        <v>288.5124719858513</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M21" t="n">
-        <v>643.9455333495112</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N21" t="n">
-        <v>676.8545255858768</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O21" t="n">
-        <v>158.2407936814412</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P21" t="n">
-        <v>425.9366065834112</v>
+        <v>293.1037913281276</v>
       </c>
       <c r="Q21" t="n">
         <v>231.497271491105</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.39726981316139</v>
+        <v>63.39726981316143</v>
       </c>
       <c r="K22" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L22" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M22" t="n">
         <v>287.5620158775312</v>
@@ -36291,13 +36291,13 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O22" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525461</v>
       </c>
       <c r="P22" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L24" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M24" t="n">
-        <v>643.9455333495109</v>
+        <v>365.3605951449923</v>
       </c>
       <c r="N24" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O24" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P24" t="n">
-        <v>313.9988445521836</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q24" t="n">
         <v>231.497271491105</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316132</v>
+        <v>63.39726981316143</v>
       </c>
       <c r="K25" t="n">
-        <v>182.6997311861654</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L25" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M25" t="n">
-        <v>287.5620158775311</v>
+        <v>287.5620158775312</v>
       </c>
       <c r="N25" t="n">
-        <v>288.1592345482257</v>
+        <v>288.1592345482258</v>
       </c>
       <c r="O25" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525461</v>
       </c>
       <c r="P25" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901422</v>
+        <v>84.41353851901434</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K27" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L27" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M27" t="n">
         <v>643.9455333495109</v>
@@ -36686,7 +36686,7 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O27" t="n">
-        <v>377.1038060626138</v>
+        <v>364.7658002901509</v>
       </c>
       <c r="P27" t="n">
         <v>107.473837943474</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316139</v>
+        <v>63.39726981316137</v>
       </c>
       <c r="K28" t="n">
         <v>182.6997311861655</v>
@@ -36771,7 +36771,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K30" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L30" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M30" t="n">
-        <v>643.9455333495109</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N30" t="n">
-        <v>435.5196812904987</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O30" t="n">
         <v>552.1031129581706</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.3972698131614</v>
+        <v>63.39726981316137</v>
       </c>
       <c r="K31" t="n">
         <v>182.6997311861655</v>
@@ -37008,7 +37008,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.41353851901431</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L33" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M33" t="n">
-        <v>643.9455333495109</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N33" t="n">
-        <v>564.9167635546494</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P33" t="n">
         <v>425.9366065834112</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.22510921552409</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K35" t="n">
-        <v>404.6619937041511</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L35" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M35" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N35" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O35" t="n">
-        <v>548.8726369764648</v>
+        <v>455.4743702512404</v>
       </c>
       <c r="P35" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123247</v>
       </c>
       <c r="Q35" t="n">
         <v>245.2070669901341</v>
@@ -37385,19 +37385,19 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K36" t="n">
-        <v>327.3637288198434</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L36" t="n">
-        <v>506.8253423079595</v>
+        <v>506.8253423079596</v>
       </c>
       <c r="M36" t="n">
-        <v>643.9455333495109</v>
+        <v>246.6474810816487</v>
       </c>
       <c r="N36" t="n">
-        <v>197.5121512423232</v>
+        <v>197.5121512423233</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P36" t="n">
         <v>425.9366065834112</v>
@@ -37467,7 +37467,7 @@
         <v>188.8023739339916</v>
       </c>
       <c r="L37" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M37" t="n">
         <v>293.6646586253573</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>188.6233759407481</v>
+        <v>95.22510921552369</v>
       </c>
       <c r="K38" t="n">
-        <v>404.6619937041511</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L38" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M38" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N38" t="n">
-        <v>536.2052163268964</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O38" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P38" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123247</v>
       </c>
       <c r="Q38" t="n">
         <v>245.2070669901341</v>
@@ -37622,22 +37622,22 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K39" t="n">
-        <v>290.7044442530197</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L39" t="n">
-        <v>135.9849970045004</v>
+        <v>342.51000361321</v>
       </c>
       <c r="M39" t="n">
-        <v>178.2404695995111</v>
+        <v>643.9455333495112</v>
       </c>
       <c r="N39" t="n">
-        <v>676.8545255858767</v>
+        <v>676.8545255858768</v>
       </c>
       <c r="O39" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814412</v>
       </c>
       <c r="P39" t="n">
-        <v>425.9366065834112</v>
+        <v>107.4738379434741</v>
       </c>
       <c r="Q39" t="n">
         <v>231.497271491105</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K40" t="n">
         <v>188.8023739339916</v>
@@ -37719,7 +37719,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684043</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.6233759407481</v>
+        <v>95.22510921552369</v>
       </c>
       <c r="K41" t="n">
-        <v>404.6619937041511</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L41" t="n">
-        <v>461.4253934110366</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M41" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N41" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O41" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P41" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123247</v>
       </c>
       <c r="Q41" t="n">
         <v>245.2070669901341</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K42" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L42" t="n">
-        <v>506.8253423079595</v>
+        <v>506.8253423079596</v>
       </c>
       <c r="M42" t="n">
-        <v>643.9455333495109</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N42" t="n">
-        <v>676.8545255858767</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O42" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P42" t="n">
-        <v>271.9489010479178</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>188.8023739339916</v>
       </c>
       <c r="L43" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M43" t="n">
         <v>293.6646586253573</v>
@@ -38017,22 +38017,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K44" t="n">
-        <v>404.6619937041511</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L44" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M44" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N44" t="n">
-        <v>536.2052163268964</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O44" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P44" t="n">
-        <v>430.3951648123246</v>
+        <v>336.9968980871</v>
       </c>
       <c r="Q44" t="n">
         <v>245.2070669901341</v>
@@ -38096,16 +38096,16 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K45" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L45" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079596</v>
       </c>
       <c r="M45" t="n">
-        <v>612.6879767899823</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N45" t="n">
-        <v>676.8545255858767</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O45" t="n">
         <v>552.1031129581706</v>
@@ -38114,7 +38114,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K46" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L46" t="n">
         <v>273.103716124295</v>
@@ -38193,7 +38193,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
